--- a/InvestmentManager.xlsx
+++ b/InvestmentManager.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
-  <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t_m_s_o_s_n\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:2001_{1257AD64-E2F7-436F-BBFB-437E2A52F0EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{4FFAEB7F-2270-4B66-89E9-E75BC313F92D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ЭТАПЫ" sheetId="1" r:id="rId1"/>
@@ -35,10 +29,10 @@
     <definedName name="solver_lhs16" localSheetId="1" hidden="1">Решение!$D$45</definedName>
     <definedName name="solver_lhs17" localSheetId="1" hidden="1">Решение!$D$32</definedName>
     <definedName name="solver_lhs18" localSheetId="1" hidden="1">Решение!$D$49</definedName>
-    <definedName name="solver_lhs19" localSheetId="1" hidden="1">Решение!$E$46</definedName>
+    <definedName name="solver_lhs19" localSheetId="1" hidden="1">Решение!$E$29</definedName>
     <definedName name="solver_lhs2" localSheetId="1" hidden="1">Решение!$B$28</definedName>
     <definedName name="solver_lhs20" localSheetId="1" hidden="1">Решение!$E$12</definedName>
-    <definedName name="solver_lhs21" localSheetId="1" hidden="1">Решение!$E$29</definedName>
+    <definedName name="solver_lhs21" localSheetId="1" hidden="1">Решение!$E$46</definedName>
     <definedName name="solver_lhs22" localSheetId="1" hidden="1">Решение!$E$12</definedName>
     <definedName name="solver_lhs3" localSheetId="1" hidden="1">Решение!$B$15</definedName>
     <definedName name="solver_lhs4" localSheetId="1" hidden="1">Решение!$B$45</definedName>
@@ -121,8 +115,7 @@
     <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -274,8 +267,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1394,75 +1387,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1488,6 +1412,75 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1817,61 +1810,61 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A7B85E9-E327-4CD8-A51C-D54F4426012B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.25" zeroHeight="1"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.25" style="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.28515625" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.28515625" style="45" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="45" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.25" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.25" style="45" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.375" style="45" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" style="45" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="4.5703125" style="45" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.28515625" style="45" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="4.625" style="45" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.25" style="45" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" style="45" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="4.5703125" style="45" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.28515625" style="45" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="45" hidden="1"/>
+    <col min="11" max="12" width="4.625" style="45" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.25" style="45" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.125" style="45" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="100" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="102" t="s">
+    <row r="1" spans="1:13" s="15" customFormat="1" ht="15">
+      <c r="A1" s="109" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="102" t="s">
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="102" t="s">
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="111" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="103"/>
-      <c r="L1" s="103"/>
-      <c r="M1" s="104"/>
-    </row>
-    <row r="2" spans="1:13" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="101"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="113"/>
+    </row>
+    <row r="2" spans="1:13" s="15" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A2" s="110"/>
       <c r="B2" s="8" t="s">
         <v>4</v>
       </c>
@@ -1909,7 +1902,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="15" customFormat="1" ht="15">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -1950,7 +1943,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" s="15" customFormat="1" ht="15">
       <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
@@ -1991,7 +1984,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" s="15" customFormat="1" ht="15.75" thickBot="1">
       <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
@@ -2032,7 +2025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" s="15" customFormat="1" ht="15.75" thickBot="1">
       <c r="A6" s="45"/>
       <c r="B6" s="46"/>
       <c r="C6" s="46"/>
@@ -2047,7 +2040,7 @@
       <c r="L6" s="46"/>
       <c r="M6" s="46"/>
     </row>
-    <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="15.75" thickBot="1">
       <c r="A7" s="44"/>
       <c r="B7" s="36" t="s">
         <v>5</v>
@@ -2062,7 +2055,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="15.75" thickBot="1">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
@@ -2079,7 +2072,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="15.75" thickBot="1">
       <c r="A9" s="8" t="s">
         <v>13</v>
       </c>
@@ -2093,19 +2086,19 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="15.75" thickBot="1">
       <c r="A10" s="45"/>
       <c r="B10" s="45"/>
       <c r="C10" s="45"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="105" t="s">
+    <row r="11" spans="1:13" ht="15">
+      <c r="A11" s="114" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="106"/>
-      <c r="C11" s="107"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B11" s="115"/>
+      <c r="C11" s="116"/>
+    </row>
+    <row r="12" spans="1:13" ht="15">
       <c r="A12" s="92" t="s">
         <v>5</v>
       </c>
@@ -2116,7 +2109,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="15.75" thickBot="1">
       <c r="A13" s="94">
         <v>30</v>
       </c>
@@ -2127,19 +2120,19 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="15.75" thickBot="1">
       <c r="A14" s="45"/>
       <c r="B14" s="45"/>
       <c r="C14" s="45"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="105" t="s">
+    <row r="15" spans="1:13" ht="15">
+      <c r="A15" s="114" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="106"/>
-      <c r="C15" s="107"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B15" s="115"/>
+      <c r="C15" s="116"/>
+    </row>
+    <row r="16" spans="1:13" ht="15">
       <c r="A16" s="92" t="s">
         <v>5</v>
       </c>
@@ -2150,7 +2143,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="15.75" thickBot="1">
       <c r="A17" s="96">
         <v>0.04</v>
       </c>
@@ -2176,70 +2169,70 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ADC78CE-4E5A-4519-9F36-556EBF37D4A7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="B37" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.25" zeroHeight="1"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="31.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="45" customWidth="1"/>
-    <col min="7" max="7" width="44.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="45.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="45.140625" style="15" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="50.42578125" style="15" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="28.140625" style="15" hidden="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="15" hidden="1"/>
+    <col min="1" max="1" width="21.875" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="31.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.625" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.125" style="45" customWidth="1"/>
+    <col min="7" max="7" width="44.75" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="45.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="45.125" style="15" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="50.375" style="15" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="28.125" style="15" hidden="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.125" style="15" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="115" t="s">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A1" s="117" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="117"/>
-      <c r="G1" s="115" t="s">
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="119"/>
+      <c r="G1" s="117" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="116"/>
-      <c r="I1" s="117"/>
-      <c r="J1" s="123"/>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="125"/>
-      <c r="B2" s="126"/>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="127"/>
-      <c r="G2" s="125"/>
-      <c r="H2" s="126"/>
-      <c r="I2" s="127"/>
-      <c r="J2" s="123"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="125"/>
-      <c r="B3" s="102" t="s">
+      <c r="H1" s="118"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="100"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A2" s="102"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="104"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="100"/>
+    </row>
+    <row r="3" spans="1:10" ht="15">
+      <c r="A3" s="102"/>
+      <c r="B3" s="111" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="103"/>
-      <c r="D3" s="104"/>
-      <c r="E3" s="127"/>
-      <c r="G3" s="125"/>
-      <c r="H3" s="126"/>
-      <c r="I3" s="127"/>
-      <c r="J3" s="123"/>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="125"/>
-      <c r="B4" s="128" t="s">
+      <c r="C3" s="112"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="104"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="100"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A4" s="102"/>
+      <c r="B4" s="105" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="28" t="s">
@@ -2248,51 +2241,51 @@
       <c r="D4" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="127"/>
-      <c r="G4" s="125"/>
-      <c r="H4" s="126"/>
-      <c r="I4" s="127"/>
-      <c r="J4" s="123"/>
-    </row>
-    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="125"/>
-      <c r="B5" s="129">
+      <c r="E4" s="104"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="104"/>
+      <c r="J4" s="100"/>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A5" s="102"/>
+      <c r="B5" s="106">
         <f>ЭТАПЫ!A13</f>
         <v>30</v>
       </c>
-      <c r="C5" s="130">
+      <c r="C5" s="107">
         <f>ЭТАПЫ!B13</f>
         <v>150</v>
       </c>
-      <c r="D5" s="131">
+      <c r="D5" s="108">
         <f>ЭТАПЫ!C13</f>
         <v>100</v>
       </c>
-      <c r="E5" s="127"/>
-      <c r="G5" s="125"/>
-      <c r="H5" s="126"/>
-      <c r="I5" s="127"/>
-      <c r="J5" s="123"/>
-    </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E5" s="104"/>
+      <c r="G5" s="102"/>
+      <c r="H5" s="103"/>
+      <c r="I5" s="104"/>
+      <c r="J5" s="100"/>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" thickBot="1">
       <c r="A6" s="44"/>
       <c r="B6" s="45"/>
       <c r="C6" s="45"/>
       <c r="D6" s="45"/>
       <c r="E6" s="62"/>
       <c r="G6" s="44"/>
-      <c r="H6" s="124"/>
+      <c r="H6" s="101"/>
       <c r="I6" s="62"/>
-      <c r="J6" s="124"/>
-    </row>
-    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="115" t="s">
+      <c r="J6" s="101"/>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A7" s="117" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="116"/>
-      <c r="C7" s="116"/>
-      <c r="D7" s="116"/>
-      <c r="E7" s="117"/>
+      <c r="B7" s="118"/>
+      <c r="C7" s="118"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="119"/>
       <c r="G7" s="16">
         <f ca="1">IFERROR(_xlfn.FORMULATEXT(B7),B7)</f>
         <v>0</v>
@@ -2306,14 +2299,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15">
       <c r="A8" s="50"/>
-      <c r="B8" s="122" t="s">
+      <c r="B8" s="127" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="103"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="108" t="s">
+      <c r="C8" s="112"/>
+      <c r="D8" s="113"/>
+      <c r="E8" s="120" t="s">
         <v>25</v>
       </c>
       <c r="G8" s="11" t="str">
@@ -2329,7 +2322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15">
       <c r="A9" s="51"/>
       <c r="B9" s="2" t="s">
         <v>29</v>
@@ -2340,7 +2333,7 @@
       <c r="D9" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="120"/>
+      <c r="E9" s="121"/>
       <c r="G9" s="11" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Сколько шагов добавить в ЦБ1</v>
@@ -2354,7 +2347,7 @@
         <v>Сколько шагов добавить в Деп.</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="15.75" thickBot="1">
       <c r="A10" s="51"/>
       <c r="B10" s="99" t="s">
         <v>14</v>
@@ -2365,7 +2358,7 @@
       <c r="D10" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="120"/>
+      <c r="E10" s="121"/>
       <c r="G10" s="11" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>x1</v>
@@ -2379,7 +2372,7 @@
         <v>x3</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="15" thickBot="1">
       <c r="A11" s="47"/>
       <c r="B11" s="42">
         <v>2</v>
@@ -2390,7 +2383,7 @@
       <c r="D11" s="30">
         <v>5</v>
       </c>
-      <c r="E11" s="120"/>
+      <c r="E11" s="121"/>
       <c r="G11" s="11">
         <f t="shared" ca="1" si="0"/>
         <v>2</v>
@@ -2404,7 +2397,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="15.75" thickBot="1">
       <c r="A12" s="41" t="s">
         <v>32</v>
       </c>
@@ -2424,20 +2417,20 @@
         <f>ЭТАПЫ!E8-B12-C12-D12-ABS(Решение!B12)*ЭТАПЫ!A17-ABS(Решение!C12)*ЭТАПЫ!B17-ABS(Решение!D12)*ЭТАПЫ!C17</f>
         <v>23</v>
       </c>
-      <c r="G12" s="11" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>=B11*ЭТАПЫ!B9</v>
-      </c>
-      <c r="H12" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>=C11*ЭТАПЫ!C9</v>
-      </c>
-      <c r="I12" s="13" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>=D11*ЭТАПЫ!D9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G12" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="H12" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" thickBot="1">
       <c r="A13" s="58"/>
       <c r="B13" s="48"/>
       <c r="C13" s="48"/>
@@ -2456,8 +2449,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="108" t="s">
+    <row r="14" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A14" s="120" t="s">
         <v>28</v>
       </c>
       <c r="B14" s="36" t="s">
@@ -2483,8 +2476,8 @@
         <v>Всего Деп.</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="109"/>
+    <row r="15" spans="1:10" ht="15" thickBot="1">
+      <c r="A15" s="126"/>
       <c r="B15" s="67">
         <f>ЭТАПЫ!B8+B12</f>
         <v>150</v>
@@ -2498,20 +2491,20 @@
         <v>900</v>
       </c>
       <c r="E15" s="51"/>
-      <c r="G15" s="11" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>=ЭТАПЫ!B8+B12</v>
-      </c>
-      <c r="H15" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>=ЭТАПЫ!C8+Решение!C12</v>
-      </c>
-      <c r="I15" s="13" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>=ЭТАПЫ!D8+Решение!D12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G15" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="H15" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>800</v>
+      </c>
+      <c r="I15" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" thickBot="1">
       <c r="A16" s="60"/>
       <c r="B16" s="49"/>
       <c r="C16" s="49"/>
@@ -2530,16 +2523,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="100" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="122" t="s">
+    <row r="17" spans="1:9" ht="15">
+      <c r="A17" s="109" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="127" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="103"/>
-      <c r="D17" s="103"/>
-      <c r="E17" s="104"/>
+      <c r="C17" s="112"/>
+      <c r="D17" s="112"/>
+      <c r="E17" s="113"/>
       <c r="G17" s="11" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Результат в конце этапа</v>
@@ -2553,8 +2546,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="101"/>
+    <row r="18" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A18" s="110"/>
       <c r="B18" s="39" t="s">
         <v>5</v>
       </c>
@@ -2580,7 +2573,7 @@
         <v>Деп.</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="15">
       <c r="A19" s="40" t="s">
         <v>18</v>
       </c>
@@ -2600,20 +2593,20 @@
         <f>SUM(B19:D19)</f>
         <v>2023</v>
       </c>
-      <c r="G19" s="11" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>=ЭТАПЫ!C3*Решение!$B$15</v>
-      </c>
-      <c r="H19" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>=ЭТАПЫ!D3*Решение!$C$15</v>
-      </c>
-      <c r="I19" s="13" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>=ЭТАПЫ!E3*Решение!$D$15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G19" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="H19" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>880.00000000000011</v>
+      </c>
+      <c r="I19" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>963</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15">
       <c r="A20" s="31" t="s">
         <v>19</v>
       </c>
@@ -2633,20 +2626,20 @@
         <f>SUM(B20:D20)</f>
         <v>1900.5</v>
       </c>
-      <c r="G20" s="11" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>=ЭТАПЫ!C4*Решение!$B$15</v>
-      </c>
-      <c r="H20" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>=ЭТАПЫ!D4*Решение!$C$15</v>
-      </c>
-      <c r="I20" s="13" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>=ЭТАПЫ!E4*Решение!$D$15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G20" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>157.5</v>
+      </c>
+      <c r="H20" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>816</v>
+      </c>
+      <c r="I20" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>927</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" thickBot="1">
       <c r="A21" s="32" t="s">
         <v>20</v>
       </c>
@@ -2666,20 +2659,20 @@
         <f>SUM(B21:D21)</f>
         <v>1780</v>
       </c>
-      <c r="G21" s="11" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>=ЭТАПЫ!C5*Решение!$B$15</v>
-      </c>
-      <c r="H21" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>=ЭТАПЫ!D5*Решение!$C$15</v>
-      </c>
-      <c r="I21" s="13" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>=ЭТАПЫ!E5*Решение!$D$15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G21" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="H21" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>760</v>
+      </c>
+      <c r="I21" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" thickBot="1">
       <c r="A22" s="43" t="s">
         <v>26</v>
       </c>
@@ -2699,20 +2692,20 @@
         <f>SUM(B22:D22)</f>
         <v>1961.9499999999998</v>
       </c>
-      <c r="G22" s="11" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>=СУММПРОИЗВ(ЭТАПЫ!$B$3:$B$5;B19:B21)</v>
-      </c>
-      <c r="H22" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>=СУММПРОИЗВ(ЭТАПЫ!$B$3:$B$5;C19:C21)</v>
-      </c>
-      <c r="I22" s="13" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>=СУММПРОИЗВ(ЭТАПЫ!$B$3:$B$5;D19:D21)</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G22" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>167.25</v>
+      </c>
+      <c r="H22" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>848.8</v>
+      </c>
+      <c r="I22" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>945.89999999999986</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" thickBot="1">
       <c r="A23" s="44"/>
       <c r="B23" s="45"/>
       <c r="C23" s="45"/>
@@ -2731,14 +2724,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="115" t="s">
+    <row r="24" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A24" s="117" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="116"/>
-      <c r="C24" s="116"/>
-      <c r="D24" s="116"/>
-      <c r="E24" s="117"/>
+      <c r="B24" s="118"/>
+      <c r="C24" s="118"/>
+      <c r="D24" s="118"/>
+      <c r="E24" s="119"/>
       <c r="G24" s="11">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
@@ -2752,14 +2745,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="118"/>
-      <c r="B25" s="111" t="s">
+    <row r="25" spans="1:9" ht="15">
+      <c r="A25" s="122"/>
+      <c r="B25" s="124" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="111"/>
-      <c r="D25" s="112"/>
-      <c r="E25" s="108" t="s">
+      <c r="C25" s="124"/>
+      <c r="D25" s="125"/>
+      <c r="E25" s="120" t="s">
         <v>25</v>
       </c>
       <c r="G25" s="11" t="str">
@@ -2775,8 +2768,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="119"/>
+    <row r="26" spans="1:9" ht="15">
+      <c r="A26" s="123"/>
       <c r="B26" s="2" t="s">
         <v>29</v>
       </c>
@@ -2786,7 +2779,7 @@
       <c r="D26" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="E26" s="120"/>
+      <c r="E26" s="121"/>
       <c r="G26" s="11" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Сколько шагов добавить в ЦБ1</v>
@@ -2800,8 +2793,8 @@
         <v>Сколько шагов добавить в Деп.</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="119"/>
+    <row r="27" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A27" s="123"/>
       <c r="B27" s="99" t="s">
         <v>14</v>
       </c>
@@ -2811,7 +2804,7 @@
       <c r="D27" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E27" s="120"/>
+      <c r="E27" s="121"/>
       <c r="G27" s="11" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>x1</v>
@@ -2825,10 +2818,10 @@
         <v>x3</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="15" thickBot="1">
       <c r="A28" s="47"/>
       <c r="B28" s="64">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="C28" s="65">
         <v>0</v>
@@ -2836,10 +2829,10 @@
       <c r="D28" s="66">
         <v>0</v>
       </c>
-      <c r="E28" s="109"/>
+      <c r="E28" s="126"/>
       <c r="G28" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="H28" s="12">
         <f t="shared" ca="1" si="1"/>
@@ -2850,13 +2843,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="15.75" thickBot="1">
       <c r="A29" s="63" t="s">
         <v>32</v>
       </c>
       <c r="B29" s="67">
         <f>B28*ЭТАПЫ!B9</f>
-        <v>-50</v>
+        <v>-125</v>
       </c>
       <c r="C29" s="68">
         <f>C28*ЭТАПЫ!C9</f>
@@ -2868,22 +2861,22 @@
       </c>
       <c r="E29" s="82">
         <f>E12-B29-C29-D29-ABS(B29)*ЭТАПЫ!A17-ABS(Решение!C29)*ЭТАПЫ!B17-ABS(Решение!D29)*ЭТАПЫ!C17</f>
-        <v>71</v>
-      </c>
-      <c r="G29" s="11" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>=B28*ЭТАПЫ!B9</v>
-      </c>
-      <c r="H29" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>=C28*ЭТАПЫ!C9</v>
-      </c>
-      <c r="I29" s="13" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>=D28*ЭТАПЫ!D9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+      <c r="G29" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>-125</v>
+      </c>
+      <c r="H29" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15.75" thickBot="1">
       <c r="A30" s="44"/>
       <c r="B30" s="45"/>
       <c r="C30" s="45"/>
@@ -2902,8 +2895,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="108" t="s">
+    <row r="31" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A31" s="120" t="s">
         <v>28</v>
       </c>
       <c r="B31" s="36" t="s">
@@ -2929,11 +2922,11 @@
         <v>Всего Деп.</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="121"/>
+    <row r="32" spans="1:9" ht="15" thickBot="1">
+      <c r="A32" s="131"/>
       <c r="B32" s="67">
         <f>B22+B29</f>
-        <v>117.25</v>
+        <v>42.25</v>
       </c>
       <c r="C32" s="68">
         <f>C22+C29</f>
@@ -2944,20 +2937,20 @@
         <v>945.89999999999986</v>
       </c>
       <c r="E32" s="62"/>
-      <c r="G32" s="11" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>=B22+B29</v>
-      </c>
-      <c r="H32" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>=C22+C29</v>
-      </c>
-      <c r="I32" s="13" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>=D22+D29</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G32" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>42.25</v>
+      </c>
+      <c r="H32" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>848.8</v>
+      </c>
+      <c r="I32" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>945.89999999999986</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="15.75" thickBot="1">
       <c r="A33" s="44"/>
       <c r="B33" s="45"/>
       <c r="C33" s="45"/>
@@ -2976,16 +2969,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="108" t="s">
-        <v>0</v>
-      </c>
-      <c r="B34" s="110" t="s">
+    <row r="34" spans="1:9" ht="15">
+      <c r="A34" s="120" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="128" t="s">
         <v>17</v>
       </c>
-      <c r="C34" s="111"/>
-      <c r="D34" s="111"/>
-      <c r="E34" s="112"/>
+      <c r="C34" s="124"/>
+      <c r="D34" s="124"/>
+      <c r="E34" s="125"/>
       <c r="G34" s="11" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Результат в конце этапа</v>
@@ -2999,8 +2992,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="109"/>
+    <row r="35" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A35" s="126"/>
       <c r="B35" s="39" t="s">
         <v>5</v>
       </c>
@@ -3026,13 +3019,13 @@
         <v>Деп.</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="15">
       <c r="A36" s="40" t="s">
         <v>18</v>
       </c>
       <c r="B36" s="71">
         <f>ЭТАПЫ!G3*B$32</f>
-        <v>164.14999999999998</v>
+        <v>59.15</v>
       </c>
       <c r="C36" s="72">
         <f>ЭТАПЫ!H3*C$32</f>
@@ -3044,28 +3037,28 @@
       </c>
       <c r="E36" s="84">
         <f>SUM(B36:D36)</f>
-        <v>2095.6289999999999</v>
-      </c>
-      <c r="G36" s="11" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>=ЭТАПЫ!G3*B$32</v>
-      </c>
-      <c r="H36" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>=ЭТАПЫ!H3*C$32</v>
-      </c>
-      <c r="I36" s="13" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>=ЭТАПЫ!I3*D$32</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1990.6289999999999</v>
+      </c>
+      <c r="G36" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>59.15</v>
+      </c>
+      <c r="H36" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>976.11999999999989</v>
+      </c>
+      <c r="I36" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>955.35899999999992</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="15">
       <c r="A37" s="31" t="s">
         <v>19</v>
       </c>
       <c r="B37" s="23">
         <f>ЭТАПЫ!G4*B$32</f>
-        <v>123.11250000000001</v>
+        <v>44.362500000000004</v>
       </c>
       <c r="C37" s="17">
         <f>ЭТАПЫ!H4*C$32</f>
@@ -3077,28 +3070,28 @@
       </c>
       <c r="E37" s="85">
         <f>SUM(B37:D37)</f>
-        <v>1917.8124999999998</v>
-      </c>
-      <c r="G37" s="11" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>=ЭТАПЫ!G4*B$32</v>
-      </c>
-      <c r="H37" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>=ЭТАПЫ!H4*C$32</v>
-      </c>
-      <c r="I37" s="13" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>=ЭТАПЫ!I4*D$32</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1839.0624999999998</v>
+      </c>
+      <c r="G37" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>44.362500000000004</v>
+      </c>
+      <c r="H37" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>848.8</v>
+      </c>
+      <c r="I37" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>945.89999999999986</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="15.75" thickBot="1">
       <c r="A38" s="32" t="s">
         <v>20</v>
       </c>
       <c r="B38" s="77">
         <f>ЭТАПЫ!G5*B$32</f>
-        <v>70.349999999999994</v>
+        <v>25.349999999999998</v>
       </c>
       <c r="C38" s="78">
         <f>ЭТАПЫ!H5*C$32</f>
@@ -3110,28 +3103,28 @@
       </c>
       <c r="E38" s="87">
         <f>SUM(B38:D38)</f>
-        <v>1780.1699999999998</v>
-      </c>
-      <c r="G38" s="11" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>=ЭТАПЫ!G5*B$32</v>
-      </c>
-      <c r="H38" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>=ЭТАПЫ!H5*C$32</v>
-      </c>
-      <c r="I38" s="13" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>=ЭТАПЫ!I5*D$32</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1735.1699999999998</v>
+      </c>
+      <c r="G38" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>25.349999999999998</v>
+      </c>
+      <c r="H38" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>763.92</v>
+      </c>
+      <c r="I38" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>945.89999999999986</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="15.75" thickBot="1">
       <c r="A39" s="43" t="s">
         <v>26</v>
       </c>
       <c r="B39" s="67">
         <f>SUMPRODUCT(ЭТАПЫ!$F$3:$F$5,B36:B38)</f>
-        <v>109.04249999999999</v>
+        <v>39.292499999999997</v>
       </c>
       <c r="C39" s="68">
         <f>SUMPRODUCT(ЭТАПЫ!$F$3:$F$5,C36:C38)</f>
@@ -3143,22 +3136,22 @@
       </c>
       <c r="E39" s="81">
         <f>SUM(B39:D39)</f>
-        <v>1902.3361999999997</v>
-      </c>
-      <c r="G39" s="11" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>=СУММПРОИЗВ(ЭТАПЫ!$F$3:$F$5;B36:B38)</v>
-      </c>
-      <c r="H39" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>=СУММПРОИЗВ(ЭТАПЫ!$F$3:$F$5;C36:C38)</v>
-      </c>
-      <c r="I39" s="13" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>=СУММПРОИЗВ(ЭТАПЫ!$F$3:$F$5;D36:D38)</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1832.5861999999997</v>
+      </c>
+      <c r="G39" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>39.292499999999997</v>
+      </c>
+      <c r="H39" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>844.55599999999993</v>
+      </c>
+      <c r="I39" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>948.7376999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="15.75" thickBot="1">
       <c r="A40" s="89"/>
       <c r="E40" s="90"/>
       <c r="G40" s="11">
@@ -3174,14 +3167,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="115" t="s">
+    <row r="41" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A41" s="117" t="s">
         <v>35</v>
       </c>
-      <c r="B41" s="116"/>
-      <c r="C41" s="116"/>
-      <c r="D41" s="116"/>
-      <c r="E41" s="117"/>
+      <c r="B41" s="118"/>
+      <c r="C41" s="118"/>
+      <c r="D41" s="118"/>
+      <c r="E41" s="119"/>
       <c r="G41" s="11">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
@@ -3195,14 +3188,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="118"/>
-      <c r="B42" s="111" t="s">
+    <row r="42" spans="1:9" ht="15">
+      <c r="A42" s="122"/>
+      <c r="B42" s="124" t="s">
         <v>27</v>
       </c>
-      <c r="C42" s="111"/>
-      <c r="D42" s="112"/>
-      <c r="E42" s="108" t="s">
+      <c r="C42" s="124"/>
+      <c r="D42" s="125"/>
+      <c r="E42" s="120" t="s">
         <v>25</v>
       </c>
       <c r="G42" s="11" t="str">
@@ -3218,8 +3211,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="119"/>
+    <row r="43" spans="1:9" ht="15">
+      <c r="A43" s="123"/>
       <c r="B43" s="2" t="s">
         <v>29</v>
       </c>
@@ -3229,7 +3222,7 @@
       <c r="D43" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="120"/>
+      <c r="E43" s="121"/>
       <c r="G43" s="11" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Сколько шагов добавить в ЦБ1</v>
@@ -3243,8 +3236,8 @@
         <v>Сколько шагов добавить в Деп.</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="119"/>
+    <row r="44" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A44" s="123"/>
       <c r="B44" s="99" t="s">
         <v>14</v>
       </c>
@@ -3254,7 +3247,7 @@
       <c r="D44" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E44" s="120"/>
+      <c r="E44" s="121"/>
       <c r="G44" s="11" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>x1</v>
@@ -3268,7 +3261,7 @@
         <v>x3</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="15" thickBot="1">
       <c r="A45" s="47"/>
       <c r="B45" s="64">
         <v>0</v>
@@ -3279,7 +3272,7 @@
       <c r="D45" s="66">
         <v>0</v>
       </c>
-      <c r="E45" s="109"/>
+      <c r="E45" s="126"/>
       <c r="G45" s="11">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
@@ -3293,7 +3286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="15.75" thickBot="1">
       <c r="A46" s="63" t="s">
         <v>32</v>
       </c>
@@ -3311,22 +3304,22 @@
       </c>
       <c r="E46" s="82">
         <f>E29-B46-C46-D46-ABS(B46)*ЭТАПЫ!A17-ABS(Решение!C46)*ЭТАПЫ!B17-ABS(Решение!D46)*ЭТАПЫ!C17</f>
-        <v>71</v>
-      </c>
-      <c r="G46" s="11" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>=B45*ЭТАПЫ!B9</v>
-      </c>
-      <c r="H46" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>=C45*ЭТАПЫ!C9</v>
-      </c>
-      <c r="I46" s="13" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>=D45*ЭТАПЫ!D9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+      <c r="G46" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H46" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I46" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="15" thickBot="1">
       <c r="A47" s="44"/>
       <c r="B47" s="45"/>
       <c r="C47" s="45"/>
@@ -3345,8 +3338,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="108" t="s">
+    <row r="48" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A48" s="120" t="s">
         <v>28</v>
       </c>
       <c r="B48" s="36" t="s">
@@ -3372,11 +3365,11 @@
         <v>Всего Деп.</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="121"/>
+    <row r="49" spans="1:9" ht="15" thickBot="1">
+      <c r="A49" s="131"/>
       <c r="B49" s="67">
         <f>B39+B46</f>
-        <v>109.04249999999999</v>
+        <v>39.292499999999997</v>
       </c>
       <c r="C49" s="68">
         <f>C39+C46</f>
@@ -3387,20 +3380,20 @@
         <v>948.7376999999999</v>
       </c>
       <c r="E49" s="62"/>
-      <c r="G49" s="11" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>=B39+B46</v>
-      </c>
-      <c r="H49" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>=C39+C46</v>
-      </c>
-      <c r="I49" s="13" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>=D39+D46</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G49" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>39.292499999999997</v>
+      </c>
+      <c r="H49" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>844.55599999999993</v>
+      </c>
+      <c r="I49" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>948.7376999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="15" thickBot="1">
       <c r="A50" s="44"/>
       <c r="B50" s="45"/>
       <c r="C50" s="45"/>
@@ -3419,16 +3412,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="108" t="s">
-        <v>0</v>
-      </c>
-      <c r="B51" s="110" t="s">
+    <row r="51" spans="1:9" ht="15">
+      <c r="A51" s="120" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" s="128" t="s">
         <v>17</v>
       </c>
-      <c r="C51" s="111"/>
-      <c r="D51" s="111"/>
-      <c r="E51" s="112"/>
+      <c r="C51" s="124"/>
+      <c r="D51" s="124"/>
+      <c r="E51" s="125"/>
       <c r="G51" s="11" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Результат в конце этапа</v>
@@ -3442,8 +3435,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="109"/>
+    <row r="52" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A52" s="126"/>
       <c r="B52" s="39" t="s">
         <v>5</v>
       </c>
@@ -3469,13 +3462,13 @@
         <v>Деп.</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="15">
       <c r="A53" s="40" t="s">
         <v>18</v>
       </c>
       <c r="B53" s="71">
         <f>ЭТАПЫ!K3*B$49</f>
-        <v>125.39887499999998</v>
+        <v>45.186374999999991</v>
       </c>
       <c r="C53" s="72">
         <f>ЭТАПЫ!L3*C$49</f>
@@ -3487,28 +3480,28 @@
       </c>
       <c r="E53" s="84">
         <f>SUM(B53:D53)</f>
-        <v>2067.4761799999997</v>
-      </c>
-      <c r="G53" s="11" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>=ЭТАПЫ!K3*B$49</v>
-      </c>
-      <c r="H53" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>=ЭТАПЫ!L3*C$49</v>
-      </c>
-      <c r="I53" s="13" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>=ЭТАПЫ!M3*D$49</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1987.26368</v>
+      </c>
+      <c r="G53" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>45.186374999999991</v>
+      </c>
+      <c r="H53" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>945.90272000000004</v>
+      </c>
+      <c r="I53" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>996.17458499999998</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="15">
       <c r="A54" s="31" t="s">
         <v>19</v>
       </c>
       <c r="B54" s="23">
         <f>ЭТАПЫ!K4*B$49</f>
-        <v>114.494625</v>
+        <v>41.257124999999995</v>
       </c>
       <c r="C54" s="17">
         <f>ЭТАПЫ!L4*C$49</f>
@@ -3520,28 +3513,28 @@
       </c>
       <c r="E54" s="85">
         <f>SUM(B54:D54)</f>
-        <v>1925.721262</v>
-      </c>
-      <c r="G54" s="11" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>=ЭТАПЫ!K4*B$49</v>
-      </c>
-      <c r="H54" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>=ЭТАПЫ!L4*C$49</v>
-      </c>
-      <c r="I54" s="13" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>=ЭТАПЫ!M4*D$49</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1852.4837619999998</v>
+      </c>
+      <c r="G54" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>41.257124999999995</v>
+      </c>
+      <c r="H54" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>853.00155999999993</v>
+      </c>
+      <c r="I54" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>958.22507699999994</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="15.75" thickBot="1">
       <c r="A55" s="32" t="s">
         <v>20</v>
       </c>
       <c r="B55" s="77">
         <f>ЭТАПЫ!K5*B$49</f>
-        <v>76.32974999999999</v>
+        <v>27.504749999999998</v>
       </c>
       <c r="C55" s="78">
         <f>ЭТАПЫ!L5*C$49</f>
@@ -3553,28 +3546,28 @@
       </c>
       <c r="E55" s="87">
         <f>SUM(B55:D55)</f>
-        <v>1818.9500899999998</v>
-      </c>
-      <c r="G55" s="11" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>=ЭТАПЫ!K5*B$49</v>
-      </c>
-      <c r="H55" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>=ЭТАПЫ!L5*C$49</v>
-      </c>
-      <c r="I55" s="13" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>=ЭТАПЫ!M5*D$49</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1770.1250899999998</v>
+      </c>
+      <c r="G55" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>27.504749999999998</v>
+      </c>
+      <c r="H55" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>793.88263999999992</v>
+      </c>
+      <c r="I55" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>948.7376999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="15.75" thickBot="1">
       <c r="A56" s="43" t="s">
         <v>26</v>
       </c>
       <c r="B56" s="67">
         <f>SUMPRODUCT(ЭТАПЫ!$J$3:$J$5,B53:B55)</f>
-        <v>111.22335000000001</v>
+        <v>40.07835</v>
       </c>
       <c r="C56" s="68">
         <f>SUMPRODUCT(ЭТАПЫ!$J$3:$J$5,C53:C55)</f>
@@ -3586,22 +3579,22 @@
       </c>
       <c r="E56" s="81">
         <f>SUM(B56:D56)</f>
-        <v>1961.0689947999999</v>
-      </c>
-      <c r="G56" s="11" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>=СУММПРОИЗВ(ЭТАПЫ!$J$3:$J$5;B53:B55)</v>
-      </c>
-      <c r="H56" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>=СУММПРОИЗВ(ЭТАПЫ!$J$3:$J$5;C53:C55)</v>
-      </c>
-      <c r="I56" s="13" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>=СУММПРОИЗВ(ЭТАПЫ!$J$3:$J$5;D53:D55)</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1889.9239947999999</v>
+      </c>
+      <c r="G56" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>40.07835</v>
+      </c>
+      <c r="H56" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>878.33824000000004</v>
+      </c>
+      <c r="I56" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>971.50740480000002</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="15" thickBot="1">
       <c r="A57" s="89"/>
       <c r="E57" s="90"/>
       <c r="G57" s="11">
@@ -3617,16 +3610,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="113" t="s">
+    <row r="58" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A58" s="129" t="s">
         <v>36</v>
       </c>
-      <c r="B58" s="114"/>
-      <c r="C58" s="114"/>
-      <c r="D58" s="114"/>
+      <c r="B58" s="130"/>
+      <c r="C58" s="130"/>
+      <c r="D58" s="130"/>
       <c r="E58" s="88">
         <f>E56+E46</f>
-        <v>2032.0689947999999</v>
+        <v>2032.9239947999999</v>
       </c>
       <c r="G58" s="56">
         <f t="shared" ca="1" si="0"/>
@@ -3656,17 +3649,6 @@
     </scenario>
   </scenarios>
   <mergeCells count="24">
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="E8:E11"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:E28"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:E51"/>
     <mergeCell ref="A58:D58"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A41:E41"/>
@@ -3680,6 +3662,17 @@
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:E28"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="E8:E11"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
